--- a/sample/locationtest/Datas/__tables__.xlsx
+++ b/sample/locationtest/Datas/__tables__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
   <si>
     <t>_tables_</t>
   </si>
@@ -137,19 +137,25 @@
     <t>TestItem</t>
   </si>
   <si>
-    <t>test.xlsx</t>
+    <t>Test/Test.xlsx</t>
   </si>
   <si>
     <t>c</t>
   </si>
   <si>
+    <t>Test/Test</t>
+  </si>
+  <si>
     <t>TestConfig2</t>
   </si>
   <si>
     <t>TestItem2</t>
   </si>
   <si>
-    <t>test2.xlsx</t>
+    <t>Test/Test2.xlsx</t>
+  </si>
+  <si>
+    <t>Test/Test2</t>
   </si>
 </sst>
 </file>
@@ -1093,8 +1099,8 @@
   <sheetPr/>
   <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="6"/>
@@ -1230,7 +1236,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" customFormat="1" spans="2:10">
+    <row r="6" customFormat="1" spans="2:13">
       <c r="B6" t="s">
         <v>34</v>
       </c>
@@ -1249,23 +1255,28 @@
       <c r="J6" t="s">
         <v>37</v>
       </c>
+      <c r="M6" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="7" customFormat="1" spans="2:10">
+    <row r="7" customFormat="1" spans="2:13">
       <c r="B7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7"/>
+        <v>40</v>
+      </c>
       <c r="F7" t="b">
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J7" t="s">
         <v>37</v>
+      </c>
+      <c r="M7" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/sample/locationtest/Datas/__tables__.xlsx
+++ b/sample/locationtest/Datas/__tables__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
   <si>
     <t>_tables_</t>
   </si>
@@ -138,9 +138,6 @@
   </si>
   <si>
     <t>Test/Test.xlsx</t>
-  </si>
-  <si>
-    <t>c</t>
   </si>
   <si>
     <t>Test/Test</t>
@@ -1099,8 +1096,8 @@
   <sheetPr/>
   <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="6"/>
@@ -1252,31 +1249,25 @@
       <c r="G6" t="s">
         <v>36</v>
       </c>
-      <c r="J6" t="s">
+      <c r="M6" t="s">
         <v>37</v>
-      </c>
-      <c r="M6" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="2:13">
       <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
         <v>39</v>
-      </c>
-      <c r="C7" t="s">
-        <v>40</v>
       </c>
       <c r="F7" t="b">
         <v>1</v>
       </c>
       <c r="G7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M7" t="s">
         <v>41</v>
-      </c>
-      <c r="J7" t="s">
-        <v>37</v>
-      </c>
-      <c r="M7" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/sample/locationtest/Datas/__tables__.xlsx
+++ b/sample/locationtest/Datas/__tables__.xlsx
@@ -1097,7 +1097,7 @@
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="6"/>

--- a/sample/locationtest/Datas/__tables__.xlsx
+++ b/sample/locationtest/Datas/__tables__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
   <si>
     <t>_tables_</t>
   </si>
@@ -153,6 +153,18 @@
   </si>
   <si>
     <t>Test/Test2</t>
+  </si>
+  <si>
+    <t>TestConfig3</t>
+  </si>
+  <si>
+    <t>TestItem3</t>
+  </si>
+  <si>
+    <t>Test/Test3.xlsx</t>
+  </si>
+  <si>
+    <t>Test/Test3</t>
   </si>
 </sst>
 </file>
@@ -844,7 +856,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CAEACE"/>
+        <a:sysClr val="window" lastClr="CEEACA"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1094,13 +1106,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="7"/>
   <cols>
     <col min="2" max="2" width="20.3796296296296" customWidth="1"/>
     <col min="3" max="5" width="15.5740740740741" customWidth="1"/>
@@ -1243,6 +1255,7 @@
       <c r="D6" t="b">
         <v>1</v>
       </c>
+      <c r="E6"/>
       <c r="F6" t="b">
         <v>1</v>
       </c>
@@ -1268,6 +1281,29 @@
       </c>
       <c r="M7" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" spans="2:13">
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>44</v>
+      </c>
+      <c r="M8" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/sample/locationtest/Datas/__tables__.xlsx
+++ b/sample/locationtest/Datas/__tables__.xlsx
@@ -140,7 +140,7 @@
     <t>Test/Test.xlsx</t>
   </si>
   <si>
-    <t>Test/Test</t>
+    <t>Test/TestConfig</t>
   </si>
   <si>
     <t>TestConfig2</t>
@@ -152,7 +152,7 @@
     <t>Test/Test2.xlsx</t>
   </si>
   <si>
-    <t>Test/Test2</t>
+    <t>Test/TestConfig2</t>
   </si>
   <si>
     <t>TestConfig3</t>
@@ -164,7 +164,7 @@
     <t>Test/Test3.xlsx</t>
   </si>
   <si>
-    <t>Test/Test3</t>
+    <t>Test/TestConfig3</t>
   </si>
 </sst>
 </file>
@@ -856,7 +856,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CEEACA"/>
+        <a:sysClr val="window" lastClr="CAEACE"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1108,8 +1108,8 @@
   <sheetPr/>
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="7"/>
@@ -1255,7 +1255,6 @@
       <c r="D6" t="b">
         <v>1</v>
       </c>
-      <c r="E6"/>
       <c r="F6" t="b">
         <v>1</v>
       </c>
